--- a/estanques_de_familias.xlsx
+++ b/estanques_de_familias.xlsx
@@ -467,19 +467,19 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>46</v>
+        <v>119</v>
       </c>
       <c r="B2" t="n">
-        <v>106</v>
+        <v>52</v>
       </c>
       <c r="C2" t="n">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D2" t="n">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="E2" t="n">
-        <v>43</v>
+        <v>121</v>
       </c>
       <c r="F2" t="n">
         <v>125</v>
@@ -487,19 +487,19 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>101</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>91</v>
       </c>
       <c r="D3" t="n">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>122</v>
       </c>
       <c r="F3" t="n">
         <v>126</v>
@@ -507,19 +507,19 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="B4" t="n">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="C4" t="n">
-        <v>89</v>
+        <v>15</v>
       </c>
       <c r="D4" t="n">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="E4" t="n">
-        <v>70</v>
+        <v>123</v>
       </c>
       <c r="F4" t="n">
         <v>127</v>
@@ -527,19 +527,19 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="C5" t="n">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="D5" t="n">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="E5" t="n">
-        <v>13</v>
+        <v>124</v>
       </c>
       <c r="F5" t="n">
         <v>128</v>
@@ -547,16 +547,16 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>121</v>
+        <v>77</v>
       </c>
       <c r="B6" t="n">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="C6" t="n">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="D6" t="n">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
@@ -565,80 +565,80 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>28</v>
+        <v>104</v>
       </c>
       <c r="B7" t="n">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="C7" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D7" t="n">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="B8" t="n">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="C8" t="n">
-        <v>124</v>
+        <v>84</v>
       </c>
       <c r="D8" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="B9" t="n">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C9" t="n">
-        <v>112</v>
+        <v>43</v>
       </c>
       <c r="D9" t="n">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="B10" t="n">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>19</v>
+        <v>103</v>
       </c>
       <c r="D10" t="n">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>110</v>
+        <v>39</v>
       </c>
       <c r="C11" t="n">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D11" t="n">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
@@ -646,13 +646,13 @@
     <row r="12">
       <c r="A12" t="inlineStr"/>
       <c r="B12" t="n">
-        <v>115</v>
+        <v>24</v>
       </c>
       <c r="C12" t="n">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="D12" t="n">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
@@ -660,13 +660,13 @@
     <row r="13">
       <c r="A13" t="inlineStr"/>
       <c r="B13" t="n">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="C13" t="n">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="D13" t="n">
-        <v>24</v>
+        <v>88</v>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
@@ -674,13 +674,13 @@
     <row r="14">
       <c r="A14" t="inlineStr"/>
       <c r="B14" t="n">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C14" t="n">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>84</v>
+        <v>6</v>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
@@ -688,13 +688,13 @@
     <row r="15">
       <c r="A15" t="inlineStr"/>
       <c r="B15" t="n">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="D15" t="n">
-        <v>109</v>
+        <v>2</v>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
@@ -702,13 +702,13 @@
     <row r="16">
       <c r="A16" t="inlineStr"/>
       <c r="B16" t="n">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="C16" t="n">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
@@ -716,13 +716,13 @@
     <row r="17">
       <c r="A17" t="inlineStr"/>
       <c r="B17" t="n">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="D17" t="n">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
@@ -730,13 +730,13 @@
     <row r="18">
       <c r="A18" t="inlineStr"/>
       <c r="B18" t="n">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="C18" t="n">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="D18" t="n">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
@@ -744,13 +744,13 @@
     <row r="19">
       <c r="A19" t="inlineStr"/>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C19" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D19" t="n">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
@@ -758,13 +758,13 @@
     <row r="20">
       <c r="A20" t="inlineStr"/>
       <c r="B20" t="n">
-        <v>88</v>
+        <v>26</v>
       </c>
       <c r="C20" t="n">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="D20" t="n">
-        <v>119</v>
+        <v>65</v>
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
@@ -772,13 +772,13 @@
     <row r="21">
       <c r="A21" t="inlineStr"/>
       <c r="B21" t="n">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C21" t="n">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="D21" t="n">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
@@ -786,13 +786,13 @@
     <row r="22">
       <c r="A22" t="inlineStr"/>
       <c r="B22" t="n">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="C22" t="n">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D22" t="n">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
@@ -800,13 +800,13 @@
     <row r="23">
       <c r="A23" t="inlineStr"/>
       <c r="B23" t="n">
-        <v>35</v>
+        <v>86</v>
       </c>
       <c r="C23" t="n">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D23" t="n">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
@@ -814,13 +814,13 @@
     <row r="24">
       <c r="A24" t="inlineStr"/>
       <c r="B24" t="n">
-        <v>99</v>
+        <v>36</v>
       </c>
       <c r="C24" t="n">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="D24" t="n">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
@@ -828,13 +828,13 @@
     <row r="25">
       <c r="A25" t="inlineStr"/>
       <c r="B25" t="n">
-        <v>98</v>
+        <v>32</v>
       </c>
       <c r="C25" t="n">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="D25" t="n">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
@@ -842,13 +842,13 @@
     <row r="26">
       <c r="A26" t="inlineStr"/>
       <c r="B26" t="n">
+        <v>95</v>
+      </c>
+      <c r="C26" t="n">
+        <v>47</v>
+      </c>
+      <c r="D26" t="n">
         <v>12</v>
-      </c>
-      <c r="C26" t="n">
-        <v>74</v>
-      </c>
-      <c r="D26" t="n">
-        <v>7</v>
       </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
@@ -856,13 +856,13 @@
     <row r="27">
       <c r="A27" t="inlineStr"/>
       <c r="B27" t="n">
-        <v>111</v>
+        <v>42</v>
       </c>
       <c r="C27" t="n">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="D27" t="n">
-        <v>122</v>
+        <v>5</v>
       </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
@@ -870,13 +870,13 @@
     <row r="28">
       <c r="A28" t="inlineStr"/>
       <c r="B28" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C28" t="n">
-        <v>14</v>
+        <v>112</v>
       </c>
       <c r="D28" t="n">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
@@ -884,13 +884,13 @@
     <row r="29">
       <c r="A29" t="inlineStr"/>
       <c r="B29" t="n">
-        <v>16</v>
+        <v>115</v>
       </c>
       <c r="C29" t="n">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D29" t="n">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
@@ -898,13 +898,13 @@
     <row r="30">
       <c r="A30" t="inlineStr"/>
       <c r="B30" t="n">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C30" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D30" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
@@ -912,13 +912,13 @@
     <row r="31">
       <c r="A31" t="inlineStr"/>
       <c r="B31" t="n">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>118</v>
+        <v>34</v>
       </c>
       <c r="D31" t="n">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
@@ -926,13 +926,13 @@
     <row r="32">
       <c r="A32" t="inlineStr"/>
       <c r="B32" t="n">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="C32" t="n">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D32" t="n">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
@@ -943,10 +943,10 @@
         <v>23</v>
       </c>
       <c r="C33" t="n">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="D33" t="n">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
@@ -954,13 +954,13 @@
     <row r="34">
       <c r="A34" t="inlineStr"/>
       <c r="B34" t="n">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="C34" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D34" t="n">
-        <v>108</v>
+        <v>29</v>
       </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
@@ -968,13 +968,13 @@
     <row r="35">
       <c r="A35" t="inlineStr"/>
       <c r="B35" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C35" t="n">
-        <v>94</v>
+        <v>10</v>
       </c>
       <c r="D35" t="n">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
@@ -982,13 +982,13 @@
     <row r="36">
       <c r="A36" t="inlineStr"/>
       <c r="B36" t="n">
-        <v>123</v>
+        <v>35</v>
       </c>
       <c r="C36" t="n">
-        <v>107</v>
+        <v>31</v>
       </c>
       <c r="D36" t="n">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
@@ -997,10 +997,10 @@
       <c r="A37" t="inlineStr"/>
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="n">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="D37" t="n">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
@@ -1009,7 +1009,7 @@
       <c r="A38" t="inlineStr"/>
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="n">
-        <v>51</v>
+        <v>107</v>
       </c>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
@@ -1019,7 +1019,7 @@
       <c r="A39" t="inlineStr"/>
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="n">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
@@ -1029,7 +1029,7 @@
       <c r="A40" t="inlineStr"/>
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="n">
-        <v>21</v>
+        <v>83</v>
       </c>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
